--- a/Assets/Dialogues/TestDialogue.xlsx
+++ b/Assets/Dialogues/TestDialogue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24753" windowHeight="10480"/>
+    <workbookView windowWidth="12313" windowHeight="8106"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>//Build中
 的SceneIndex</t>
@@ -62,6 +62,9 @@
 Name对应DialogueSystemUI上的Image对象命名</t>
   </si>
   <si>
+    <t>语音</t>
+  </si>
+  <si>
     <t>//播放的动画</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>FloatingSpirtePathJson</t>
   </si>
   <si>
+    <t>AudioClipPaths</t>
+  </si>
+  <si>
     <t>AnimationClipName</t>
   </si>
   <si>
@@ -140,6 +146,9 @@
     <t>烛箱劳斯！</t>
   </si>
   <si>
+    <t>[adc]test1-0</t>
+  </si>
+  <si>
     <t>终于找到你了！你还好吧！恢复得怎么样？</t>
   </si>
   <si>
@@ -149,14 +158,23 @@
     <t>{"Speaker.L":"[spk]Candy_Def_Worried"}</t>
   </si>
   <si>
+    <t>[adc]test1-1</t>
+  </si>
+  <si>
     <t>那天你倒地之后没几分钟救护车就把你拉走了，
-我一直想找你，但是我一直没有问道你的消息</t>
+我一直想找你，但是没有你的消息</t>
+  </si>
+  <si>
+    <t>[adc]test1-2</t>
   </si>
   <si>
     <t>毕竟……你那时候也是为了救我</t>
   </si>
   <si>
     <t>{"Speaker.L":"[spk]Candy_Def_Smile"}</t>
+  </si>
+  <si>
+    <t>[adc]test1-3</t>
   </si>
   <si>
     <t>（哦对，当时我为了挡开往幺糖身上砸去的补光灯，才被电池砸晕的
@@ -176,6 +194,9 @@
   </si>
   <si>
     <t>那……你不会已经不认得我了吧</t>
+  </si>
+  <si>
+    <t>[adc]test1-4</t>
   </si>
   <si>
     <t>当然还认得……幺糖……劳斯</t>
@@ -1379,8 +1400,8 @@
   <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89380530973451" defaultRowHeight="16"/>
@@ -1398,7 +1419,7 @@
     <col min="11" max="16384" width="8.89380530973451" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57" customHeight="1" spans="1:10">
+    <row r="1" ht="57" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1429,37 +1450,43 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1473,19 +1500,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -1494,16 +1521,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3"/>
       <c r="J4" s="1"/>
@@ -1513,10 +1540,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
@@ -1528,16 +1555,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -1546,10 +1573,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>6</v>
@@ -1562,10 +1589,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2">
         <v>7</v>
@@ -1577,84 +1604,96 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:9">
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
         <v>9</v>
       </c>
       <c r="H10" s="3"/>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:9">
       <c r="C11" s="8">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="12" ht="43" customHeight="1" spans="3:8">
+    <row r="12" ht="43" customHeight="1" spans="3:9">
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2">
         <v>11</v>
       </c>
       <c r="H12" s="3"/>
+      <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="13" ht="43" customHeight="1" spans="3:8">
+    <row r="13" ht="43" customHeight="1" spans="3:9">
       <c r="C13" s="1">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2">
         <v>12</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" ht="41" customHeight="1" spans="3:8">
@@ -1662,16 +1701,16 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2">
         <v>13</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="3:8">
@@ -1679,13 +1718,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -1694,33 +1733,36 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2">
         <v>-1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="17" spans="3:8">
+    <row r="17" spans="3:9">
       <c r="C17" s="1">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2">
         <v>16</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="3:8">
@@ -1728,16 +1770,16 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F18" s="2">
         <v>17</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="3:8">
@@ -1745,16 +1787,16 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F19" s="2">
         <v>-1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
